--- a/system test plan.xlsx
+++ b/system test plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9780e12611d4510/Documents/School/CIT360/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{541CA844-28AE-41E2-BB9F-89BE65AA3259}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{541CA844-28AE-41E2-BB9F-89BE65AA3259}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4A5A0349-07ED-43CD-8F97-BAF4AF51D73E}"/>
   <bookViews>
-    <workbookView xWindow="-5505" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{3B6203E5-640F-4826-AAEE-F35D93BC79B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B6203E5-640F-4826-AAEE-F35D93BC79B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t xml:space="preserve">Test Script Name: </t>
   </si>
@@ -72,66 +72,9 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Go to survey Manager</t>
-  </si>
-  <si>
-    <t>Click Create a survey</t>
-  </si>
-  <si>
-    <t>Enter in form details</t>
-  </si>
-  <si>
-    <t>submit form</t>
-  </si>
-  <si>
-    <t>Edit created Survey</t>
-  </si>
-  <si>
-    <t>Scroll to bottom and fill in  new question</t>
-  </si>
-  <si>
-    <t>Add new Question</t>
-  </si>
-  <si>
-    <t>Click view survey</t>
-  </si>
-  <si>
-    <t>go to survey Manager</t>
-  </si>
-  <si>
-    <t>open create page</t>
-  </si>
-  <si>
-    <t>no form issues</t>
-  </si>
-  <si>
-    <t>form submits</t>
-  </si>
-  <si>
-    <t>page loads</t>
-  </si>
-  <si>
     <t>FVISurvey.com</t>
   </si>
   <si>
-    <t>page loads along with forms</t>
-  </si>
-  <si>
-    <t>form directions are clear.</t>
-  </si>
-  <si>
-    <t>page reloads and question appears</t>
-  </si>
-  <si>
-    <t>redirected and survey is shown.</t>
-  </si>
-  <si>
-    <t>10:00PM</t>
-  </si>
-  <si>
     <t>Patrick Feeney</t>
   </si>
   <si>
@@ -144,10 +87,88 @@
     <t>creating a new survey</t>
   </si>
   <si>
-    <t>improve look</t>
-  </si>
-  <si>
-    <t>Have a better looking form.</t>
+    <t>A message saying, ' Please provide a valid email address and password' is given.</t>
+  </si>
+  <si>
+    <t>Stay on the log in page and enter a correct email and password.</t>
+  </si>
+  <si>
+    <t>Go to the log in page and enter incorrect information.</t>
+  </si>
+  <si>
+    <t>The user is taken to the administrator's  page.</t>
+  </si>
+  <si>
+    <t>The user is taken to the survey manager page.</t>
+  </si>
+  <si>
+    <t>Click on the Survey Manager link.</t>
+  </si>
+  <si>
+    <t>Click on the 'Create' button directly below the 'Create a Survey' text.</t>
+  </si>
+  <si>
+    <t>The user is taken to the create a survey page.</t>
+  </si>
+  <si>
+    <t>Fill in all parts of the form (Survey Name, Instructions, Comment, Language).</t>
+  </si>
+  <si>
+    <t>Submit the form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message at the top is provided saying, 'Your survey was created'. </t>
+  </si>
+  <si>
+    <t>Click on the 'Survey Manager' link at the bottom of the page</t>
+  </si>
+  <si>
+    <t>The user is returned back to the survey manager page and their survey appears on the list of surveys.</t>
+  </si>
+  <si>
+    <t>The user is taken to the edit survey page</t>
+  </si>
+  <si>
+    <t>Click on the 'Edit' link next to the survey which was just created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill in the 'Add a Question' form by following the instructions on the form. </t>
+  </si>
+  <si>
+    <t>Below the 'Add a Question' text a message saying 'Question created' is displayed. The newly created question is displayed below the 'Questions' section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll to the bottom of the page and click the 'View Survey' link. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user is taken to view the survey and the question they just created. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill in the survey as directed by the instructions which were originally put in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the 'Submit' button at the end of the survey. </t>
+  </si>
+  <si>
+    <t>1:00PM</t>
+  </si>
+  <si>
+    <t>Make the form look better.</t>
+  </si>
+  <si>
+    <t>The form says 'mix'. Should it say 'min'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the 'Create' button at the bottom of the 'Add a Question' Form </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide what number the range is actually at. </t>
+  </si>
+  <si>
+    <t>The user is directed to a page displaying a thank you message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can now close the window or move to a new page. </t>
   </si>
 </sst>
 </file>
@@ -340,43 +361,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC21A92-34B4-4B21-8031-87C15A09140A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,281 +758,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="2">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>3</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>5</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="C13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>7</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>8</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>9</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6">
-        <v>43634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>2</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>3</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>4</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>5</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>6</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>7</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>8</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
-        <v>9</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>10</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="B17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>11</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>12</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>13</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
@@ -991,10 +1091,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
